--- a/Chapter_4/C_EM_Feature_Selection/listay.xlsx
+++ b/Chapter_4/C_EM_Feature_Selection/listay.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Store\PhdFinal\PhdThesisProg\Chapter_4\C_EM_Feature_Selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="90" windowWidth="18180" windowHeight="10875"/>
   </bookViews>
@@ -18,46 +23,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>NPOD-REF REFLUX VISSZA H</t>
-  </si>
-  <si>
     <t>P-303-3 TEK-2 HOMERS.</t>
   </si>
   <si>
-    <t>124 BE FUTOGAZ</t>
-  </si>
-  <si>
-    <t>230-TUZT HOMERS</t>
-  </si>
-  <si>
     <t>MOP CIRK.REFLUX HOMERS.</t>
   </si>
   <si>
-    <t>KGO-MCS MEGCSAP HOMERS.</t>
-  </si>
-  <si>
-    <t>166 TERM. GOZ</t>
-  </si>
-  <si>
-    <t>364 VENT.CSAPAGY HOFOK</t>
-  </si>
-  <si>
-    <t>tartály tömeg</t>
-  </si>
-  <si>
-    <t>01018 tartály szint</t>
-  </si>
-  <si>
-    <t>110 FALAZAT HOFOK 1</t>
-  </si>
-  <si>
-    <t>110 FALAZAT HOFOK 6</t>
-  </si>
-  <si>
-    <t>143-1 ALSO RACS ARAM</t>
-  </si>
-  <si>
-    <t>120-3 belépő víz hőmérséklet</t>
+    <t>101 FENEK GOZ 101-FNG</t>
+  </si>
+  <si>
+    <t>SPOD-KIT</t>
+  </si>
+  <si>
+    <t>109-KI 1-AG NYOMAS</t>
+  </si>
+  <si>
+    <t>301/1 2.TEKERCS HOMERS.</t>
+  </si>
+  <si>
+    <t>110 ALAPANYAG MENNY.</t>
+  </si>
+  <si>
+    <t>112GAZ KILEPO FUTOGAZ</t>
+  </si>
+  <si>
+    <t>143-3 ALSO RACS ARAM</t>
+  </si>
+  <si>
+    <t>NPOD-REF REFLUX M3-H</t>
+  </si>
+  <si>
+    <t>IVOVIZ GERINC AV2-NEL</t>
+  </si>
+  <si>
+    <t>KOND.VIZ 221 BELEPO HOME</t>
+  </si>
+  <si>
+    <t>230 FUTOGAZ NYOMAS</t>
+  </si>
+  <si>
+    <t>108 FUSTGAZ HOFOK</t>
   </si>
 </sst>
 </file>
@@ -106,6 +111,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -153,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,42 +413,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -455,17 +463,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
